--- a/GHI_CoinR.xlsx
+++ b/GHI_CoinR.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Kouakou\THESIS\Simulation\Interactive_Map\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personnel á JeanDi\Thesis WASCAL\Simulation\Interactive_Map\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8497F2A6-4260-47D2-B4F2-2FA16DA149AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B78BA97-87A8-4410-A6E1-9ED85357E2A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" tabRatio="750" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="750" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Short-Term Scenario" sheetId="1" r:id="rId1"/>
@@ -544,12 +544,6 @@
     <t>This scenario considers that 1% of the total assessed potential is installed by 2030. We assume that in the short term (2030), 100% of green hydrogen produced is exported to international markets. This choice is supported by global demand and SSA’s industrial limitations.</t>
   </si>
   <si>
-    <t>We assume here that 2.5% of the total potential is installed by 2040.We assume a balanced distribution in the mid-term (2040) with 50% for export and local use. Both international trade and domestic value chains are considered.</t>
-  </si>
-  <si>
-    <t>The long-term scenario assumes that 5% of the total potential will be developed by 2060. We set priority local development, assuming in the long term (2060), 70% will be for domestic use. This is done to maximize local benefits while maintaining export competitiveness.</t>
-  </si>
-  <si>
     <t>Given that SSA is the region with the highest young population, with nearly 60% of the population under the age of 25, green hydrogen project will also contribute to youth employment and skills development. In the absence of data in this sector, this study will take a closer look at the Youth Participation rate in the renewable energy sector.</t>
   </si>
   <si>
@@ -636,6 +630,12 @@
   </si>
   <si>
     <t>Nomber of skilled jobs that will be created when doing a green hydrogen project in a country for the scenario considered</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We assume in the Mid-Term Scenario that 2.5% of the total potential is installed by 2040. Moreover, we assume a balanced distribution of market allocation in the mid-term (2040) with 50% for export and local use. Finally, 50% of the hydrogen produced for local use is allocated for Power-to-Power application. Both international trade and domestic value chains are considered. </t>
+  </si>
+  <si>
+    <t>The long-term scenario assumes that 5% of the total potential will be developed by 2060. We set priority local development, assuming in the long term (2060), 70% will be for domestic use. Moreover, 50% of the hydrogen produced for local use is allocated for Power-to-Power application. This is done such that to maximize local benefits while maintaining export competitiveness.</t>
   </si>
 </sst>
 </file>
@@ -695,7 +695,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -706,7 +706,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -9909,7 +9908,7 @@
       <c r="B3" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" t="s">
         <v>159</v>
       </c>
     </row>
@@ -9932,7 +9931,7 @@
         <v>77</v>
       </c>
       <c r="C5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -9943,7 +9942,7 @@
         <v>157</v>
       </c>
       <c r="C6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -9954,7 +9953,7 @@
         <v>80</v>
       </c>
       <c r="C7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -9965,7 +9964,7 @@
         <v>143</v>
       </c>
       <c r="C8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -9976,7 +9975,7 @@
         <v>145</v>
       </c>
       <c r="C9" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -9986,8 +9985,8 @@
       <c r="B10" t="s">
         <v>144</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>173</v>
+      <c r="C10" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -9998,7 +9997,7 @@
         <v>153</v>
       </c>
       <c r="C11" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -10009,7 +10008,7 @@
         <v>156</v>
       </c>
       <c r="C12" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -10020,7 +10019,7 @@
         <v>154</v>
       </c>
       <c r="C13" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -10031,7 +10030,7 @@
         <v>146</v>
       </c>
       <c r="C14" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -10042,7 +10041,7 @@
         <v>147</v>
       </c>
       <c r="C15" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -10053,7 +10052,7 @@
         <v>148</v>
       </c>
       <c r="C16" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -10064,7 +10063,7 @@
         <v>92</v>
       </c>
       <c r="C17" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -10075,7 +10074,7 @@
         <v>150</v>
       </c>
       <c r="C18" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -10086,7 +10085,7 @@
         <v>149</v>
       </c>
       <c r="C19" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -10097,7 +10096,7 @@
         <v>96</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -10108,7 +10107,7 @@
         <v>151</v>
       </c>
       <c r="C21" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -10185,7 +10184,7 @@
         <v>108</v>
       </c>
       <c r="C28" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -10196,7 +10195,7 @@
         <v>110</v>
       </c>
       <c r="C29" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -10218,7 +10217,7 @@
         <v>114</v>
       </c>
       <c r="C31" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -10228,8 +10227,8 @@
       <c r="B32" t="s">
         <v>84</v>
       </c>
-      <c r="C32" s="6" t="s">
-        <v>173</v>
+      <c r="C32" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -10240,7 +10239,7 @@
         <v>117</v>
       </c>
       <c r="C33" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -10251,7 +10250,7 @@
         <v>119</v>
       </c>
       <c r="C34" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -10262,7 +10261,7 @@
         <v>121</v>
       </c>
       <c r="C35" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -10273,7 +10272,7 @@
         <v>123</v>
       </c>
       <c r="C36" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -10284,7 +10283,7 @@
         <v>125</v>
       </c>
       <c r="C37" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -10295,7 +10294,7 @@
         <v>127</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -10306,7 +10305,7 @@
         <v>141</v>
       </c>
       <c r="C39" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -10328,7 +10327,7 @@
         <v>132</v>
       </c>
       <c r="C41" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
@@ -10339,7 +10338,7 @@
         <v>134</v>
       </c>
       <c r="C42" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
@@ -10350,7 +10349,7 @@
         <v>136</v>
       </c>
       <c r="C43" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
@@ -10361,7 +10360,7 @@
         <v>138</v>
       </c>
       <c r="C44" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
@@ -10372,7 +10371,7 @@
         <v>140</v>
       </c>
       <c r="C45" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -10385,7 +10384,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10406,15 +10405,15 @@
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>166</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>167</v>
+        <v>196</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>168</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -10423,6 +10422,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="767d275c-6971-4293-a5d3-acd58983a3a0">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="3ed283a1-8830-45d9-b62e-6c30e2ca9fa1" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101008D563FE83A69544BB8A32E2B219EB346" ma:contentTypeVersion="10" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="51021ba5d304ea4bb0396bf92bbff9ef">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="767d275c-6971-4293-a5d3-acd58983a3a0" xmlns:ns3="3ed283a1-8830-45d9-b62e-6c30e2ca9fa1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c014e12d31eca77d5b4e477e5d5d6bc4" ns2:_="" ns3:_="">
     <xsd:import namespace="767d275c-6971-4293-a5d3-acd58983a3a0"/>
@@ -10611,27 +10630,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72F319CA-5BC5-4ACC-B24C-0E5ABECA63E4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="767d275c-6971-4293-a5d3-acd58983a3a0"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3ed283a1-8830-45d9-b62e-6c30e2ca9fa1"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="767d275c-6971-4293-a5d3-acd58983a3a0">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="3ed283a1-8830-45d9-b62e-6c30e2ca9fa1" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D87D9425-DADA-4747-A731-B24D17621E86}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC2A2C9E-0A26-4DA8-9D6D-0230D3F4350D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10648,29 +10672,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D87D9425-DADA-4747-A731-B24D17621E86}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72F319CA-5BC5-4ACC-B24C-0E5ABECA63E4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="767d275c-6971-4293-a5d3-acd58983a3a0"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3ed283a1-8830-45d9-b62e-6c30e2ca9fa1"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/GHI_CoinR.xlsx
+++ b/GHI_CoinR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personnel á JeanDi\Thesis WASCAL\Simulation\Interactive_Map\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B78BA97-87A8-4410-A6E1-9ED85357E2A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F8CC80D-D86C-4A15-8218-265E259FBEB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="750" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="200">
   <si>
     <t>uCode</t>
   </si>
@@ -636,6 +636,12 @@
   </si>
   <si>
     <t>The long-term scenario assumes that 5% of the total potential will be developed by 2060. We set priority local development, assuming in the long term (2060), 70% will be for domestic use. Moreover, 50% of the hydrogen produced for local use is allocated for Power-to-Power application. This is done such that to maximize local benefits while maintaining export competitiveness.</t>
+  </si>
+  <si>
+    <t>Scenario</t>
+  </si>
+  <si>
+    <t>Text</t>
   </si>
 </sst>
 </file>
@@ -695,7 +701,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -706,6 +712,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -10381,38 +10388,48 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57215F62-F51A-4356-B981-B35509745734}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="51" customWidth="1"/>
-    <col min="2" max="2" width="69.5546875" customWidth="1"/>
+    <col min="2" max="2" width="255.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="60.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" s="6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B3" s="6" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>197</v>
       </c>
     </row>
@@ -10422,26 +10439,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="767d275c-6971-4293-a5d3-acd58983a3a0">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="3ed283a1-8830-45d9-b62e-6c30e2ca9fa1" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101008D563FE83A69544BB8A32E2B219EB346" ma:contentTypeVersion="10" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="51021ba5d304ea4bb0396bf92bbff9ef">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="767d275c-6971-4293-a5d3-acd58983a3a0" xmlns:ns3="3ed283a1-8830-45d9-b62e-6c30e2ca9fa1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c014e12d31eca77d5b4e477e5d5d6bc4" ns2:_="" ns3:_="">
     <xsd:import namespace="767d275c-6971-4293-a5d3-acd58983a3a0"/>
@@ -10630,32 +10627,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72F319CA-5BC5-4ACC-B24C-0E5ABECA63E4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="767d275c-6971-4293-a5d3-acd58983a3a0"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3ed283a1-8830-45d9-b62e-6c30e2ca9fa1"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D87D9425-DADA-4747-A731-B24D17621E86}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="767d275c-6971-4293-a5d3-acd58983a3a0">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="3ed283a1-8830-45d9-b62e-6c30e2ca9fa1" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC2A2C9E-0A26-4DA8-9D6D-0230D3F4350D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10672,4 +10664,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D87D9425-DADA-4747-A731-B24D17621E86}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72F319CA-5BC5-4ACC-B24C-0E5ABECA63E4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="767d275c-6971-4293-a5d3-acd58983a3a0"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3ed283a1-8830-45d9-b62e-6c30e2ca9fa1"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/GHI_CoinR.xlsx
+++ b/GHI_CoinR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personnel á JeanDi\Thesis WASCAL\Simulation\Interactive_Map\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F8CC80D-D86C-4A15-8218-265E259FBEB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A85E4C9-DE86-41C9-88E3-514C0417CDA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="750" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -701,7 +701,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -712,7 +712,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -10391,7 +10390,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10402,34 +10401,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" t="s">
         <v>198</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" t="s">
         <v>163</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" t="s">
         <v>164</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+      <c r="A4" t="s">
         <v>165</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" t="s">
         <v>197</v>
       </c>
     </row>
